--- a/Config/Customer_Service_Center.xlsx
+++ b/Config/Customer_Service_Center.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>Rest_API</t>
   </si>
@@ -80,16 +80,438 @@
 ]
 </t>
   </si>
+  <si>
+    <t>/api/user/dingDingDeptDetail</t>
+  </si>
+  <si>
+    <t>钉钉——获取部门详情</t>
+  </si>
+  <si>
+    <t>[
+    ("deptId=",
+     "241951934"),
+    ("deptId=",
+     "24"),
+    ("deptId=",
+     ""),
+    ("deptId=",
+     "236295909"),
+    ("deptId=",
+     "224110056"),
+    ("deptId=",
+     "222994918"),
+    ("deptId=",
+     "240405944"),
+    ("deptId=",
+     "240450889"),
+    ("deptId=",
+     "240730909"),
+    ("deptId=",
+     "241141885"),
+    ("deptId=",
+     "241295858"),
+    ("deptId=",
+     "241396898"),
+    ("deptId=",
+     "241570938"),
+    ("deptId=",
+     "241754918"),
+    ("deptId=",
+     "241974895"),
+    ("deptId=",
+     "242030847"),
+    ("deptId=",
+     "242044930"),
+    ("deptId=",
+     "242129987"),
+    ("deptId=",
+     "242358873"),
+    ("deptId=",
+     "243154034"),
+    ("deptId=",
+     "267097103"),
+]</t>
+  </si>
+  <si>
+    <t>/api/user/dingDingDeptMember</t>
+  </si>
+  <si>
+    <t>钉钉——获取部门下用户列表</t>
+  </si>
+  <si>
+    <t>/api/user/dingDingRoleStaffList</t>
+  </si>
+  <si>
+    <t>钉钉-获取角色下员工列表</t>
+  </si>
+  <si>
+    <t>[
+    ("roleId=",
+     "795365507"),
+    ("roleId=",
+     "795365509"),
+    ("roleId=",
+     "795365510"),
+    ("roleId=",
+     "795365508"),
+    ("roleId=",
+     "795365512"),
+    ("roleId=",
+     "795365513"),
+    ("roleId=",
+     "795365514"),
+    ("roleId=",
+     "795365515"),
+    ("roleId=",
+     "795365516"),
+    ("roleId=",
+     "795365517"),
+    ("roleId=",
+     "795365518"),
+    ("roleId=",
+     "795365519"),
+    ("roleId=",
+     "795365520"),
+    ("roleId=",
+     "947684115"),
+    ("roleId=",
+     "795365507"),
+    ("roleId=",
+     "795365521"),
+    ("roleId=",
+     "879471193"),
+    ("roleId=",
+     "795365523"),
+    ("roleId=",
+     "795365524"),
+    ("roleId=",
+     "795365525"),
+    ("roleId=",
+     "795365526"),
+    ("roleId=",
+     "795365527"),
+    ("roleId=",
+     "795365528"),
+    ("roleId=",
+     "795365529"),
+    ("roleId=",
+     "795365530"),
+    ("roleId=",
+     "911240948"),
+    ("roleId=",
+     "911587957"),
+    ("roleId=",
+     "941504101"),
+    ("roleId=",
+     "dasdasda"),
+    ("roleId=",
+     "947651132"),
+    ("roleId=",
+     "")]</t>
+  </si>
+  <si>
+    <t>/api/user/dingDingRoleDetail</t>
+  </si>
+  <si>
+    <t>钉钉-获取角色详情</t>
+  </si>
+  <si>
+    <t>/api/user/dingDingRoleList</t>
+  </si>
+  <si>
+    <t>钉钉-获取角色列表</t>
+  </si>
+  <si>
+    <t>/api/user/dingDingGetUserLeader</t>
+  </si>
+  <si>
+    <t>钉钉-获取用户上级详情</t>
+  </si>
+  <si>
+    <t>/api/user/dingDingUserList</t>
+  </si>
+  <si>
+    <t>钉钉-获取当前用户下所有员工  做缓存</t>
+  </si>
+  <si>
+    <t>/api/user/dingDingDeptUserList</t>
+  </si>
+  <si>
+    <t>钉钉-获取部门下所有员工  做缓存</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[
+    ("deptName=",
+     "隼行测试"),
+    ("deptName=",
+     "南区"),
+    ("deptName=",
+     "东部军区"),
+    ("deptName=",
+     "城市招商部"),
+    ("deptName=",
+     "客户管理中心"),
+    ("deptName=",
+     "宁波战团"),
+    ("deptName=",
+     "杭州战营1"),
+    ("deptName=",
+     "福建战区"),
+    ("deptName=",
+     "山东战区"),
+    ("deptName=",
+     "江苏战区"),
+    ("deptName=",
+     "杭州战团"),
+    ("deptName=",
+     "杭州战营2"),
+    ("deptName=",
+     "广州战营"),
+    ("deptName=",
+     "上海战区"),
+    ("deptName=",
+     "温州战团"),
+    ("deptName=",
+     "广东战区"),
+    ("deptName=",
+     "杭州战营工作组2"),
+    ("deptName=",
+     "广州战团"),
+    ("deptName=",
+     "浙江战区"),
+    ("deptName=",
+     "杭州战营工作组1"),
+    ("deptName=",
+     "工作组"),
+    ("deptName=",
+     ""),
+    ("deptName=",
+     "山东"),
+]
+</t>
+  </si>
+  <si>
+    <t>/api/user/dingDingDeptList</t>
+  </si>
+  <si>
+    <t>钉钉-获取当前登录人部门列表</t>
+  </si>
+  <si>
+    <t>/api/user/dingDingUserTree</t>
+  </si>
+  <si>
+    <t>钉钉-获取当前的登录人树形菜单  做缓存</t>
+  </si>
+  <si>
+    <t>/api/message/sendMessage</t>
+  </si>
+  <si>
+    <t>IM消息中心-发送消息接口</t>
+  </si>
+  <si>
+    <t>[
+    (
+        "1",
+        "1",
+        "1",
+        "1",
+        "061052015035430487",
+        "哈哈哈刘程旭好帅",
+        "236295909",
+        "061052015035430487",
+        "鲶鱼pc发给钉钉 工作类型：工作通知 有接收人和部门id"),
+    (
+        "NY-PC",
+        "1",
+        "1",
+        "1",
+        "061052015035430487",
+        "哈哈哈刘程旭好帅",
+        "236295909,240450889,241974895",
+        "061052015035430487",
+        "鲶鱼pc发给钉钉 传多个部门"),
+    (
+        "NY-PC",
+        "1",
+        "1",
+        "1",
+        "061052015035430487",
+        "哈哈哈刘程旭好帅",
+        "236295909",
+        "061052015035430487,28373101361631065137,manager2564",
+        "鲶鱼pc发给钉钉 传多个接收人"),
+    (
+        "NY-PC",
+        "1",
+        "1",
+        "1",
+        "061052015035430487",
+        "哈哈哈刘程旭好帅！",
+        "236295909,240450889,241974895",
+        "061052015035430487,28373101361631065137,manager2564",
+        "鲶鱼pc发给钉钉 传多个部门多个接收人"),
+    (
+        "NY-PC",
+        "1",
+        "1",
+        "1",
+        "061052015035430487",
+        "哈哈哈刘程旭好帅",
+        "236295909",
+        "",
+        "鲶鱼pc发给钉钉 工作类型：工作通知 有部门id没有接收人id"),
+    (
+        "NY-PC",
+        "1",
+        "1",
+        "1",
+        "061052015035430487",
+        "哈哈哈刘程旭好帅",
+        "",
+        "061052015035430487",
+        "鲶鱼pc发给钉钉 工作类型：工作通知 有接收人id没有部门id"),
+    (
+        "NY-APP",
+        "1",
+        "1",
+        "1",
+        "061052015035430487",
+        "哈哈哈刘程旭好帅",
+        "236295909",
+        "061052015035430487",
+        "鲶鱼APP发给钉钉 工作类型：工作通知 有接收人和部门id"),
+    (
+        "NY-APP",
+        "1",
+        "1",
+        "1",
+        "061052015035430487",
+        "哈哈哈刘程旭好帅",
+        "236295909,240450889,241974895",
+        "061052015035430487",
+        "鲶鱼APP发给钉钉 传多个部门"),
+    (
+        "NY-APP",
+        "1",
+        "1",
+        "1",
+        "061052015035430487",
+        "哈哈哈刘程旭好帅",
+        "236295909",
+        "061052015035430487,28373101361631065137,manager2564",
+        "鲶鱼APP发给钉钉 传多个接收人"),
+    (
+        "NY-APP",
+        "1",
+        "1",
+        "1",
+        "061052015035430487",
+        "哈哈哈刘程旭好帅",
+        "236295909,240450889,241974895",
+        "061052015035430487,28373101361631065137,manager2564",
+        "鲶鱼APP发给钉钉 传多个部门多个接收人"),
+    (
+        "NY-APP",
+        "1",
+        "1",
+        "1",
+        "061052015035430487",
+        "哈哈哈刘程旭好帅",
+        "",
+        "061052015035430487",
+        "鲶鱼APP发给钉钉 工作类型：工作通知 有接收人id没有部门id"),
+    (
+        "NY-APP",
+        "1",
+        "1",
+        "1",
+        "061052015035430487",
+        "哈哈哈刘程旭好帅",
+        "236295909",
+        "",
+        "鲶鱼APP发给钉钉 工作类型：工作通知 有部门id没有接收人id"),
+    (
+        "",
+        "1",
+        "1",
+        "1",
+        "061052015035430487",
+        "哈哈哈刘程旭好帅",
+        "236295909",
+        "061052015035430487",
+        "必传字段有一个没传"),
+    (
+        "NY-PC",
+        "",
+        "1",
+        "1",
+        "061052015035430487",
+        "哈哈哈刘程旭好帅",
+        "236295909",
+        "061052015035430487",
+        "必传字段有一个没传"),
+    (
+        "NY-PC",
+        "1",
+        "",
+        "1",
+        "061052015035430487",
+        "哈哈哈刘程旭好帅",
+        "236295909",
+        "061052015035430487",
+        "必传字段有一个没传"),
+    (
+        "NY-PC",
+        "1",
+        "1",
+        "",
+        "061052015035430487",
+        "哈哈哈刘程旭好帅",
+        "236295909",
+        "061052015035430487",
+        "必传字段有一个没传"),
+    (
+        "NY-PC",
+        "1",
+        "1",
+        "1",
+        "",
+        "哈哈哈刘程旭好帅",
+        "236295909",
+        "061052015035430487",
+        "必传字段有一个没传"),
+    (
+        "NY-PC",
+        "1",
+        "1",
+        "1",
+        "061052015035430487",
+        "",
+        "236295909",
+        "061052015035430487",
+        "必传字段有一个没传"),
+    (
+        "NY-PC",
+        "1",
+        "1",
+        "1",
+        "061052015035430487",
+        "哈哈哈刘程旭好帅",
+        "",
+        "",
+        "部门id和接收人id是必须要传一个"),
+]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -101,7 +523,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -109,13 +531,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,14 +561,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,6 +589,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -175,6 +621,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -182,74 +672,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -260,187 +682,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,8 +905,52 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,36 +971,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -549,31 +985,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,148 +1004,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1064,8 +1486,8 @@
   <sheetPr/>
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A13" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.4" outlineLevelCol="2"/>
@@ -1097,60 +1519,124 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
+    <row r="3" ht="409.5" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" ht="409.5" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" ht="409.5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" ht="409.5" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
+    <row r="8" ht="409.5" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" ht="409.5" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" ht="409.5" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" ht="409.5" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" ht="409.5" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" ht="409.5" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1"/>

--- a/Config/Customer_Service_Center.xlsx
+++ b/Config/Customer_Service_Center.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16200"/>
+    <workbookView windowWidth="32720" windowHeight="15600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="dingding" sheetId="1" r:id="rId1"/>
+    <sheet name="kf" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
   <si>
     <t>Rest_API</t>
   </si>
@@ -502,6 +503,74 @@
         "部门id和接收人id是必须要传一个"),
 ]</t>
   </si>
+  <si>
+    <t>/sunxing-customer-service/api/v1/im/init</t>
+  </si>
+  <si>
+    <t>初始化登陆接口</t>
+  </si>
+  <si>
+    <t>[("liuchengxu","刘程旭","0","15000000000","liuchengxu@163.com","web","客服 类型为web"),
+("liuchengxu","刘程旭","0","15000000000","liuchengxu@163.com","app","客服 类型为app"),
+("liuchengxu","刘程旭","1","15000000000","liuchengxu@163.com","web","客户 类型为web"),
+("liuchengxu","刘程旭","1","15000000000","liuchengxu@163.com","web","客户 类型为web"),
+("liuchengxu","刘程旭","","15000000000","liuchengxu@163.com","web","用户身份未传"),
+("","刘程旭","0","15000000000","liuchengxu@163.com","web","登陆账号 未传"),
+("liuchengxu","","0","15000000000","liuchengxu@163.com","web","用户昵称 未传"),
+("liuchengxu","刘程旭","","15000000000","liuchengxu@163.com","web","用户身份 未传"),
+("liuchengxu","刘程旭","3","15000000000","liuchengxu@163.com","web","错误的用户身份  3"),
+("liuchengxu","刘程旭","3","15000000000","","web","邮箱未填写"),
+("liuchengxu","刘程旭","3","15000000000","liuchengxu@163.com","","loginType未填写"),
+]</t>
+  </si>
+  <si>
+    <t>/sunxing-customer-service/api/v1/im/disconnect</t>
+  </si>
+  <si>
+    <t>结束会话</t>
+  </si>
+  <si>
+    <t>[("zhangsan","lisi","0","异对 客服"),
+("zhangsan","lisi","1","异对 客户"),
+("zhangsan","zhangsan","0","自己发给自己 客服"),
+("zhangsan","zhangsan","1","自己发给自己 客户"),
+("zhangsan","lisi","","未填 userType"),
+("zhangsan","","0","未填 接受账户"),
+("","lisi","0","未填 发送账户"),
+("","","","必填项都未填"),
+     ]</t>
+  </si>
+  <si>
+    <t>/sunxing-customer-service/api/v1/im/updateCustomerServiceStatus</t>
+  </si>
+  <si>
+    <t>更新客服状态</t>
+  </si>
+  <si>
+    <t>[("102013620721191002","0","在线"),
+("102013620721191002","1","离线"),
+("102013620721191002","2","忙碌"),
+("102013620721191002","","客服状态没传"),
+("102013620721191002","77","错误的客服状态"),
+("","77","客服账号没传"),
+("10086","77","错误的客服账号"),
+]</t>
+  </si>
+  <si>
+    <t>/api/dingding/news/sendMessage</t>
+  </si>
+  <si>
+    <t>钉钉机器人群消息推送</t>
+  </si>
+  <si>
+    <t>[("markdown","NY_PC","DataGroup",[],"","帅过金城武","https://bkimg.cdn.bcebos.com/pic/cb8065380cd7912309f965f9a5345982b2b78026?x-bce-process=image/resize,m_lfit,w_500,h_500,limit_1","","","markdown消息-鲶鱼pc发给数据组"),
+("","NY_PC","DataGroup",[],"","帅过金城武","https://bkimg.cdn.bcebos.com/pic/cb8065380cd7912309f965f9a5345982b2b78026?x-bce-process=image/resize,m_lfit,w_500,h_500,limit_1","","","未传msgType 内容"),
+("lalal","NY_PC","DataGroup",[],"","帅过金城武","https://bkimg.cdn.bcebos.com/pic/cb8065380cd7912309f965f9a5345982b2b78026?x-bce-process=image/resize,m_lfit,w_500,h_500,limit_1","","","错误的msg内容"),
+("markdown","","DataGroup",[],"","帅过金城武","https://bkimg.cdn.bcebos.com/pic/cb8065380cd7912309f965f9a5345982b2b78026?x-bce-process=image/resize,m_lfit,w_500,h_500,limit_1","","","业务系统未传"),
+("markdown","NY_APP","",[],"","帅过金城武","https://bkimg.cdn.bcebos.com/pic/cb8065380cd7912309f965f9a5345982b2b78026?x-bce-process=image/resize,m_lfit,w_500,h_500,limit_1","","","机器人 roup没传"),
+("text","NY_APP","",[],"","帅过金城武","https://bkimg.cdn.bcebos.com/pic/cb8065380cd7912309f965f9a5345982b2b78026?x-bce-process=image/resize,m_lfit,w_500,h_500,limit_1","","","文本消息类型  内容传递的是图片链接"),
+]</t>
+  </si>
 </sst>
 </file>
 
@@ -509,8 +578,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -523,45 +592,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -574,15 +612,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -599,30 +668,38 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -635,15 +712,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -651,8 +719,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -664,14 +741,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -688,181 +757,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -902,11 +971,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -922,35 +997,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -971,21 +1020,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -999,162 +1033,200 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1486,8 +1558,8 @@
   <sheetPr/>
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A13" sqref="$A1:$XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.4" outlineLevelCol="2"/>
@@ -1515,7 +1587,7 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1526,7 +1598,7 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1537,7 +1609,7 @@
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1548,7 +1620,7 @@
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1559,7 +1631,7 @@
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1570,7 +1642,7 @@
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" ht="409.5" spans="1:3">
       <c r="A8" s="1" t="s">
@@ -1579,7 +1651,7 @@
       <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1590,7 +1662,7 @@
       <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1601,7 +1673,7 @@
       <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1612,7 +1684,7 @@
       <c r="B11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1623,7 +1695,7 @@
       <c r="B12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1634,233 +1706,309 @@
       <c r="B13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="2"/>
+      <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
+      <c r="C17" s="3"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="2"/>
+      <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="2"/>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="2"/>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="2"/>
+      <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="2"/>
+      <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="2"/>
+      <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="2"/>
+      <c r="C24" s="3"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="2"/>
+      <c r="C25" s="3"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="2"/>
+      <c r="C26" s="3"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="2"/>
+      <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="2"/>
+      <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="2"/>
+      <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="2"/>
+      <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="2"/>
+      <c r="C31" s="3"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="2"/>
+      <c r="C32" s="3"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="2"/>
+      <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="2"/>
+      <c r="C34" s="3"/>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="2"/>
+      <c r="C35" s="3"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="2"/>
+      <c r="C36" s="3"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="2"/>
+      <c r="C37" s="3"/>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="2"/>
+      <c r="C38" s="3"/>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="2"/>
+      <c r="C39" s="3"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="2"/>
+      <c r="C40" s="3"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="2"/>
+      <c r="C41" s="3"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="2"/>
+      <c r="C42" s="3"/>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="2"/>
+      <c r="C43" s="3"/>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
-      <c r="C44" s="2"/>
+      <c r="C44" s="3"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="2"/>
+      <c r="C45" s="3"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
-      <c r="C46" s="2"/>
+      <c r="C46" s="3"/>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="5"/>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="5"/>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="5"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="5"/>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="5"/>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="5"/>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="5"/>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="5"/>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="5"/>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="5"/>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="36.75" defaultRowHeight="12.4" outlineLevelRow="4" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="44.4910714285714" customWidth="1"/>
+    <col min="2" max="16384" width="36.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="409.5" spans="1:3">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" ht="137" spans="1:3">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" ht="124" spans="1:3">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" ht="409.5" spans="1:3">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Config/Customer_Service_Center.xlsx
+++ b/Config/Customer_Service_Center.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="32720" windowHeight="15600" activeTab="1"/>
+    <workbookView windowWidth="32760" windowHeight="15600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="dingding" sheetId="1" r:id="rId1"/>
     <sheet name="kf" sheetId="2" r:id="rId2"/>
+    <sheet name="zs" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
   <si>
     <t>Rest_API</t>
   </si>
@@ -563,13 +564,93 @@
     <t>钉钉机器人群消息推送</t>
   </si>
   <si>
-    <t>[("markdown","NY_PC","DataGroup",[],"","帅过金城武","https://bkimg.cdn.bcebos.com/pic/cb8065380cd7912309f965f9a5345982b2b78026?x-bce-process=image/resize,m_lfit,w_500,h_500,limit_1","","","markdown消息-鲶鱼pc发给数据组"),
-("","NY_PC","DataGroup",[],"","帅过金城武","https://bkimg.cdn.bcebos.com/pic/cb8065380cd7912309f965f9a5345982b2b78026?x-bce-process=image/resize,m_lfit,w_500,h_500,limit_1","","","未传msgType 内容"),
-("lalal","NY_PC","DataGroup",[],"","帅过金城武","https://bkimg.cdn.bcebos.com/pic/cb8065380cd7912309f965f9a5345982b2b78026?x-bce-process=image/resize,m_lfit,w_500,h_500,limit_1","","","错误的msg内容"),
-("markdown","","DataGroup",[],"","帅过金城武","https://bkimg.cdn.bcebos.com/pic/cb8065380cd7912309f965f9a5345982b2b78026?x-bce-process=image/resize,m_lfit,w_500,h_500,limit_1","","","业务系统未传"),
-("markdown","NY_APP","",[],"","帅过金城武","https://bkimg.cdn.bcebos.com/pic/cb8065380cd7912309f965f9a5345982b2b78026?x-bce-process=image/resize,m_lfit,w_500,h_500,limit_1","","","机器人 roup没传"),
-("text","NY_APP","",[],"","帅过金城武","https://bkimg.cdn.bcebos.com/pic/cb8065380cd7912309f965f9a5345982b2b78026?x-bce-process=image/resize,m_lfit,w_500,h_500,limit_1","","","文本消息类型  内容传递的是图片链接"),
+    <t>[("text","NY_PC","DataGroup",[],"","帅过金城武","文本消息-鲶鱼pc发给数据组","","","GroupNews","","","","文本消息-鲶鱼pc发给数据组"),
+("text","NY_APP","DataGroup",[],"","帅过金城武","文本消息-鲶鱼app发给数据组","","","GroupNews","","","","文本消息-鲶鱼app发给数据组"),
+("text","DataGroup","DataGroup",[],"","帅过金城武","文本消息-数据组发给数据组","","","GroupNews","","","","文本消息-数据组发给数据组"),
+("text","DataGroup","DataGroup",[],"true","帅过金城武","文本消息-数据组发给数据组-@所有人-atMobiles没传值","","","GroupNews","","","","文本消息-数据组发给数据组-@所有人-atMobiles没传值"),
+("text","DataGroup","DataGroup",["17317937115"],"true","帅过金城武","文本消息-数据组发给数据组-@所有人-atMobiles有传值","","","GroupNews","","","","文本消息-数据组发给数据组-@所有人-atMobiles有传值"),
+("text","DataGroup","DataGroup",["17317937115"],"","帅过金城武","文本消息-数据组发给数据组——@单人","","","GroupNews","","","","文本消息-数据组发给数据组——@单人"),
+("text","DataGroup","DataGroup",["17317937115","13788957116"],"","帅过金城武","文本消息-数据组发给数据组——@多人","","","GroupNews","","","","文本消息-数据组发给数据组——@多人"),
+("text","DataGroup","DataGroup",[],"","","我最帅！我最帅！","","","GroupNews","","","","文本消息-没有标题"),
+("text","DataGroup","DataGroup",[],"","帅过金城武","","","","GroupNews","","","","文本消息-没有消息内容"),
+("text","DataGroup","DataGroup",[],"","","","","","GroupNews","","","","文本消息-没有标题和内容"),
+("text","","DataGroup",[],"","帅过金城武","我最帅！我最帅！","","","GroupNews","","","","文本消息-业务系统未传"),
+("text","NY_PC","",[],"","帅过金城武","我最帅！我最帅！","","","GroupNews","","","","文本消息-机器人地址未传"),
+("text","NY_PC","DataGroup",[],"","帅过金城武","工作通知 隼行测试 刘程旭发给谢玉霞  文本消息-鲶鱼pc发给数据组","","","WorkNotice","","102013620721191002,061052015035430487","102013620721191002","工作通知 隼行测试 刘程旭发给谢玉霞 文本消息"),
+("text","NY_PC","DataGroup",[],"","帅过金城武","工作通知 隼行测试 刘程旭发给谢玉霞  文本消息-鲶鱼pc发给数据组","","","WorkNotice","","102013620721191002,061052015035430487","102013620721191002,061052015035430487","工作通知 隼行测试 刘程旭发给谢玉霞和刘程旭 文本消息"),
+("text","NY_PC","DataGroup",[],"","帅过金城武","工作通知 deptId未传 刘程旭发给谢玉霞","","","WorkNotice","","061052015035430487","102013620721191002","工作通知 deptId未传 刘程旭发给谢玉霞"),
+("text","NY_PC","DataGroup",[],"","帅过金城武","工作通知 deptId传入s 刘程旭发给谢玉霞","","","WorkNotice","s","061052015035430487","102013620721191002","工作通知 deptId传入s 刘程旭发给谢玉霞"),
+("text","NY_PC","DataGroup",[],"","帅过金城武","工作通知 隼行测试 接收用户的id未传","","","WorkNotice","1","","102013620721191002","工作通知 隼行测试 接收用户的id未传"),
+("text","NY_PC","DataGroup",[],"","帅过金城武","工作通知 隼行测试 发送用户的id未传","","","WorkNotice","1","061052015035430487","","工作通知 隼行测试 发送用户的id未传"),
+("text","NY_PC","DataGroup",[],"","帅过金城武","工作通知 隼行测试 没有接收人和发送人id","","","WorkNotice","1","","","工作通知 隼行测试 没有接收人和发送人id"),
+("link","NY_PC","DataGroup",[],"","帅过金城武","link消息-鲶鱼pc发给数据组","https://baike.baidu.com/item/%E6%B3%B0%E5%8B%92%C2%B7%E6%96%AF%E5%A8%81%E5%A4%AB%E7%89%B9/8472307?fromtitle=%E6%B3%B0%E5%8B%92%E6%96%AF%E5%A8%81%E5%A4%AB%E7%89%B9&amp;fromid=23688107&amp;fr=aladdin","https://bkimg.cdn.bcebos.com/pic/cb8065380cd7912309f965f9a5345982b2b78026?x-bce-process=image/resize,m_lfit,w_500,h_500,limit_1","GroupNews","","","","link消息-鲶鱼pc发给数据组"),
+("link","NY_PC","DataGroup",[],"","帅过金城武","link消息-sendType消息类型未传","https://baike.baidu.com/item/%E6%B3%B0%E5%8B%92%C2%B7%E6%96%AF%E5%A8%81%E5%A4%AB%E7%89%B9/8472307?fromtitle=%E6%B3%B0%E5%8B%92%E6%96%AF%E5%A8%81%E5%A4%AB%E7%89%B9&amp;fromid=23688107&amp;fr=aladdin","https://bkimg.cdn.bcebos.com/pic/cb8065380cd7912309f965f9a5345982b2b78026?x-bce-process=image/resize,m_lfit,w_500,h_500,limit_1","","","","","link消息-sendType消息类型未传"),
+("link","NY_PC","DataGroup",[],"","帅过金城武","link消息-sendType消息类型传入不存在的-liuchengxu","https://baike.baidu.com/item/%E6%B3%B0%E5%8B%92%C2%B7%E6%96%AF%E5%A8%81%E5%A4%AB%E7%89%B9/8472307?fromtitle=%E6%B3%B0%E5%8B%92%E6%96%AF%E5%A8%81%E5%A4%AB%E7%89%B9&amp;fromid=23688107&amp;fr=aladdin","https://bkimg.cdn.bcebos.com/pic/cb8065380cd7912309f965f9a5345982b2b78026?x-bce-process=image/resize,m_lfit,w_500,h_500,limit_1","liuchengxu","","","","link消息-sendType消息类型传入不存在的-liuchengxu"),
+("link","NY_PC","DataGroup",[],"","帅过金城武","link消息-sendType消息类型传入不存在的-刘程旭","https://baike.baidu.com/item/%E6%B3%B0%E5%8B%92%C2%B7%E6%96%AF%E5%A8%81%E5%A4%AB%E7%89%B9/8472307?fromtitle=%E6%B3%B0%E5%8B%92%E6%96%AF%E5%A8%81%E5%A4%AB%E7%89%B9&amp;fromid=23688107&amp;fr=aladdin","https://bkimg.cdn.bcebos.com/pic/cb8065380cd7912309f965f9a5345982b2b78026?x-bce-process=image/resize,m_lfit,w_500,h_500,limit_1","刘程旭","","","","link消息-sendType消息类型传入不存在的-刘程旭"),
+("link","NY_APP","DataGroup",[],"","帅过金城武","link消息-鲶鱼app发给数据组","https://baike.baidu.com/item/%E6%B3%B0%E5%8B%92%C2%B7%E6%96%AF%E5%A8%81%E5%A4%AB%E7%89%B9/8472307?fromtitle=%E6%B3%B0%E5%8B%92%E6%96%AF%E5%A8%81%E5%A4%AB%E7%89%B9&amp;fromid=23688107&amp;fr=aladdin","https://bkimg.cdn.bcebos.com/pic/cb8065380cd7912309f965f9a5345982b2b78026?x-bce-process=image/resize,m_lfit,w_500,h_500,limit_1","GroupNews","","","","link消息-鲶鱼app发给数据组"),
+("link","DataGroup","DataGroup",[],"","帅过金城武","link消息-数据组发给数据组","https://baike.baidu.com/item/%E6%B3%B0%E5%8B%92%C2%B7%E6%96%AF%E5%A8%81%E5%A4%AB%E7%89%B9/8472307?fromtitle=%E6%B3%B0%E5%8B%92%E6%96%AF%E5%A8%81%E5%A4%AB%E7%89%B9&amp;fromid=23688107&amp;fr=aladdin","https://bkimg.cdn.bcebos.com/pic/cb8065380cd7912309f965f9a5345982b2b78026?x-bce-process=image/resize,m_lfit,w_500,h_500,limit_1","GroupNews","","","","link消息-数据组发给数据组"),
+("link","DataGroup","DataGroup",[],"","帅过金城武","link消息-消息跳转url没传","","https://bkimg.cdn.bcebos.com/pic/cb8065380cd7912309f965f9a5345982b2b78026?x-bce-process=image/resize,m_lfit,w_500,h_500,limit_1","GroupNews","","","","link消息-消息跳转url没传"),
+("text","NY_PC","DataGroup",[],"","帅过金城武","link消息格式但是消息类型是text","https://baike.baidu.com/item/%E6%B3%B0%E5%8B%92%C2%B7%E6%96%AF%E5%A8%81%E5%A4%AB%E7%89%B9/8472307?fromtitle=%E6%B3%B0%E5%8B%92%E6%96%AF%E5%A8%81%E5%A4%AB%E7%89%B9&amp;fromid=23688107&amp;fr=aladdin","https://bkimg.cdn.bcebos.com/pic/cb8065380cd7912309f965f9a5345982b2b78026?x-bce-process=image/resize,m_lfit,w_500,h_500,limit_1","GroupNews","","","","link消息格式但是消息类型是text"),
+("link","","DataGroup",[],"","帅过金城武","我最帅！我最帅！","https://baike.baidu.com/item/%E6%B3%B0%E5%8B%92%C2%B7%E6%96%AF%E5%A8%81%E5%A4%AB%E7%89%B9/8472307?fromtitle=%E6%B3%B0%E5%8B%92%E6%96%AF%E5%A8%81%E5%A4%AB%E7%89%B9&amp;fromid=23688107&amp;fr=aladdin","https://bkimg.cdn.bcebos.com/pic/cb8065380cd7912309f965f9a5345982b2b78026?x-bce-process=image/resize,m_lfit,w_500,h_500,limit_1","GroupNews","","","","link消息-业务系统未传"),
+("link","NY_PC","",[],"","帅过金城武","我最帅！我最帅！","https://baike.baidu.com/item/%E6%B3%B0%E5%8B%92%C2%B7%E6%96%AF%E5%A8%81%E5%A4%AB%E7%89%B9/8472307?fromtitle=%E6%B3%B0%E5%8B%92%E6%96%AF%E5%A8%81%E5%A4%AB%E7%89%B9&amp;fromid=23688107&amp;fr=aladdin","https://bkimg.cdn.bcebos.com/pic/cb8065380cd7912309f965f9a5345982b2b78026?x-bce-process=image/resize,m_lfit,w_500,h_500,limit_1","GroupNews","","","","link消息-机器人地址未传"),
+("link","DataGroup","DataGroup",[],"","","我最帅！我最帅！","https://baike.baidu.com/item/%E6%B3%B0%E5%8B%92%C2%B7%E6%96%AF%E5%A8%81%E5%A4%AB%E7%89%B9/8472307?fromtitle=%E6%B3%B0%E5%8B%92%E6%96%AF%E5%A8%81%E5%A4%AB%E7%89%B9&amp;fromid=23688107&amp;fr=aladdin","https://bkimg.cdn.bcebos.com/pic/cb8065380cd7912309f965f9a5345982b2b78026?x-bce-process=image/resize,m_lfit,w_500,h_500,limit_1","GroupNews","","","","link消息-标题未传"),
+("link","DataGroup","DataGroup",[],"","帅过金城武","","https://baike.baidu.com/item/%E6%B3%B0%E5%8B%92%C2%B7%E6%96%AF%E5%A8%81%E5%A4%AB%E7%89%B9/8472307?fromtitle=%E6%B3%B0%E5%8B%92%E6%96%AF%E5%A8%81%E5%A4%AB%E7%89%B9&amp;fromid=23688107&amp;fr=aladdin","https://bkimg.cdn.bcebos.com/pic/cb8065380cd7912309f965f9a5345982b2b78026?x-bce-process=image/resize,m_lfit,w_500,h_500,limit_1","GroupNews","","","","link消息-消息内容未传"),
+("link","NY_PC","DataGroup",[],"","帅过金城武","link消息-鲶鱼pc发给数据组","https://baike.baidu.com/item/%E6%B3%B0%E5%8B%92%C2%B7%E6%96%AF%E5%A8%81%E5%A4%AB%E7%89%B9/8472307?fromtitle=%E6%B3%B0%E5%8B%92%E6%96%AF%E5%A8%81%E5%A4%AB%E7%89%B9&amp;fromid=23688107&amp;fr=aladdin","https://bkimg.cdn.bcebos.com/pic/cb8065380cd7912309f965f9a5345982b2b78026?x-bce-process=image/resize,m_lfit,w_500,h_500,limit_1","WorkNotice","","102013620721191002,061052015035430487","102013620721191002","link消息-工作通知 隼行测试 刘程旭发给谢玉霞"),
+("link","NY_PC","DataGroup",[],"","帅过金城武","link消息-工作通知 加入财务的部门id 隼行测试 刘程旭发给谢玉霞","https://baike.baidu.com/item/%E6%B3%B0%E5%8B%92%C2%B7%E6%96%AF%E5%A8%81%E5%A4%AB%E7%89%B9/8472307?fromtitle=%E6%B3%B0%E5%8B%92%E6%96%AF%E5%A8%81%E5%A4%AB%E7%89%B9&amp;fromid=23688107&amp;fr=aladdin","https://bkimg.cdn.bcebos.com/pic/cb8065380cd7912309f965f9a5345982b2b78026?x-bce-process=image/resize,m_lfit,w_500,h_500,limit_1","WorkNotice","312971166","102013620721191002,061052015035430487","102013620721191002","link消息-工作通知 加入财务的部门id 隼行测试 刘程旭发给谢玉霞"),
+("link","NY_PC","DataGroup",[],"","帅过金城武","link消息-工作通知 接收用户没传","https://baike.baidu.com/item/%E6%B3%B0%E5%8B%92%C2%B7%E6%96%AF%E5%A8%81%E5%A4%AB%E7%89%B9/8472307?fromtitle=%E6%B3%B0%E5%8B%92%E6%96%AF%E5%A8%81%E5%A4%AB%E7%89%B9&amp;fromid=23688107&amp;fr=aladdin","https://bkimg.cdn.bcebos.com/pic/cb8065380cd7912309f965f9a5345982b2b78026?x-bce-process=image/resize,m_lfit,w_500,h_500,limit_1","WorkNotice","","","102013620721191002","link消息-工作通知 接收用户没传"),
+("link","NY_PC","DataGroup",[],"","帅过金城武","link消息-工作通知 消息类型没传","https://baike.baidu.com/item/%E6%B3%B0%E5%8B%92%C2%B7%E6%96%AF%E5%A8%81%E5%A4%AB%E7%89%B9/8472307?fromtitle=%E6%B3%B0%E5%8B%92%E6%96%AF%E5%A8%81%E5%A4%AB%E7%89%B9&amp;fromid=23688107&amp;fr=aladdin","https://bkimg.cdn.bcebos.com/pic/cb8065380cd7912309f965f9a5345982b2b78026?x-bce-process=image/resize,m_lfit,w_500,h_500,limit_1","","","","102013620721191002","link消息-工作通知 消息类型没传"),
+("link","NY_PC","DataGroup",[],"","帅过金城武","link消息-工作通知 消息类型输入错误的","https://baike.baidu.com/item/%E6%B3%B0%E5%8B%92%C2%B7%E6%96%AF%E5%A8%81%E5%A4%AB%E7%89%B9/8472307?fromtitle=%E6%B3%B0%E5%8B%92%E6%96%AF%E5%A8%81%E5%A4%AB%E7%89%B9&amp;fromid=23688107&amp;fr=aladdin","https://bkimg.cdn.bcebos.com/pic/cb8065380cd7912309f965f9a5345982b2b78026?x-bce-process=image/resize,m_lfit,w_500,h_500,limit_1","lalal","","","102013620721191002","link消息-工作通知 消息类型输入错误的"),
+("link","NY_PC","DataGroup",[],"","帅过金城武","link消息-鲶鱼pc发给数据组","https://baike.baidu.com/item/%E6%B3%B0%E5%8B%92%C2%B7%E6%96%AF%E5%A8%81%E5%A4%AB%E7%89%B9/8472307?fromtitle=%E6%B3%B0%E5%8B%92%E6%96%AF%E5%A8%81%E5%A4%AB%E7%89%B9&amp;fromid=23688107&amp;fr=aladdin","https://bkimg.cdn.bcebos.com/pic/cb8065380cd7912309f965f9a5345982b2b78026?x-bce-process=image/resize,m_lfit,w_500,h_500,limit_1","WorkNotice","","102013620721191002,061052015035430487","","link消息-工作通知 发送用户没传"),
+("link","","DataGroup",[],"","帅过金城武","我最帅！我最帅！","https://baike.baidu.com/item/%E6%B3%B0%E5%8B%92%C2%B7%E6%96%AF%E5%A8%81%E5%A4%AB%E7%89%B9/8472307?fromtitle=%E6%B3%B0%E5%8B%92%E6%96%AF%E5%A8%81%E5%A4%AB%E7%89%B9&amp;fromid=23688107&amp;fr=aladdin","https://bkimg.cdn.bcebos.com/pic/cb8065380cd7912309f965f9a5345982b2b78026?x-bce-process=image/resize,m_lfit,w_500,h_500,limit_1","WorkNotice","","102013620721191002,061052015035430487","102013620721191002","link消息-业务系统未传-工作通知 隼行测试 刘程旭发给谢玉霞"),
+("link","NY_PC","",[],"","帅过金城武","我最帅！我最帅！","https://baike.baidu.com/item/%E6%B3%B0%E5%8B%92%C2%B7%E6%96%AF%E5%A8%81%E5%A4%AB%E7%89%B9/8472307?fromtitle=%E6%B3%B0%E5%8B%92%E6%96%AF%E5%A8%81%E5%A4%AB%E7%89%B9&amp;fromid=23688107&amp;fr=aladdin","https://bkimg.cdn.bcebos.com/pic/cb8065380cd7912309f965f9a5345982b2b78026?x-bce-process=image/resize,m_lfit,w_500,h_500,limit_1","WorkNotice","","102013620721191002,061052015035430487","102013620721191002","link消息-机器人地址未传-工作通知 隼行测试 刘程旭发给谢玉霞"),
+("link","DataGroup","DataGroup",[],"","","我最帅！我最帅！","https://baike.baidu.com/item/%E6%B3%B0%E5%8B%92%C2%B7%E6%96%AF%E5%A8%81%E5%A4%AB%E7%89%B9/8472307?fromtitle=%E6%B3%B0%E5%8B%92%E6%96%AF%E5%A8%81%E5%A4%AB%E7%89%B9&amp;fromid=23688107&amp;fr=aladdin","https://bkimg.cdn.bcebos.com/pic/cb8065380cd7912309f965f9a5345982b2b78026?x-bce-process=image/resize,m_lfit,w_500,h_500,limit_1","WorkNotice","","102013620721191002,061052015035430487","102013620721191002","link消息-标题未传-工作通知 隼行测试 刘程旭发给谢玉霞"),
+("link","DataGroup","DataGroup",[],"","帅过金城武","","https://baike.baidu.com/item/%E6%B3%B0%E5%8B%92%C2%B7%E6%96%AF%E5%A8%81%E5%A4%AB%E7%89%B9/8472307?fromtitle=%E6%B3%B0%E5%8B%92%E6%96%AF%E5%A8%81%E5%A4%AB%E7%89%B9&amp;fromid=23688107&amp;fr=aladdin","https://bkimg.cdn.bcebos.com/pic/cb8065380cd7912309f965f9a5345982b2b78026?x-bce-process=image/resize,m_lfit,w_500,h_500,limit_1","WorkNotice","","102013620721191002,061052015035430487","102013620721191002","link消息-消息内容未传-工作通知 隼行测试 刘程旭发给谢玉霞"),
+("markdown","NY_PC","DataGroup",[],"","帅过金城武","https://bkimg.cdn.bcebos.com/pic/cb8065380cd7912309f965f9a5345982b2b78026?x-bce-process=image/resize,m_lfit,w_500,h_500,limit_1","","","GroupNews","","","","markdown消息-鲶鱼pc发给数据组"),
+("","NY_PC","DataGroup",[],"","帅过金城武","https://bkimg.cdn.bcebos.com/pic/cb8065380cd7912309f965f9a5345982b2b78026?x-bce-process=image/resize,m_lfit,w_500,h_500,limit_1","","","GroupNews","","","","未传msgType 内容"),
+("lalal","NY_PC","DataGroup",[],"","帅过金城武","https://bkimg.cdn.bcebos.com/pic/cb8065380cd7912309f965f9a5345982b2b78026?x-bce-process=image/resize,m_lfit,w_500,h_500,limit_1","","","GroupNews","","","","错误的msg内容"),
+("markdown","","DataGroup",[],"","帅过金城武","https://bkimg.cdn.bcebos.com/pic/cb8065380cd7912309f965f9a5345982b2b78026?x-bce-process=image/resize,m_lfit,w_500,h_500,limit_1","","","GroupNews","","","","业务系统未传"),
+("markdown","NY_APP","",[],"","帅过金城武","https://bkimg.cdn.bcebos.com/pic/cb8065380cd7912309f965f9a5345982b2b78026?x-bce-process=image/resize,m_lfit,w_500,h_500,limit_1","","","GroupNews","","","","机器人 roup没传"),
+("text","NY_APP","",[],"","帅过金城武","https://bkimg.cdn.bcebos.com/pic/cb8065380cd7912309f965f9a5345982b2b78026?x-bce-process=image/resize,m_lfit,w_500,h_500,limit_1","","","GroupNews","","","","文本消息类型  内容传递的是图片链接"),
+("markdown","NY_PC","DataGroup",[],"","帅过金城武","https://bkimg.cdn.bcebos.com/pic/cb8065380cd7912309f965f9a5345982b2b78026?x-bce-process=image/resize,m_lfit,w_500,h_500,limit_1","","","WorkNotice","312971166","102013620721191002,061052015035430487","102013620721191002","markdown消息-鲶鱼pc发给数据组-工作通知"),
+("markdown","NY_PC","DataGroup",[],"","帅过金城武","https://bkimg.cdn.bcebos.com/pic/cb8065380cd7912309f965f9a5345982b2b78026?x-bce-process=image/resize,m_lfit,w_500,h_500,limit_1","","","WorkNotice","","","102013620721191002","markdown消息-工作通知-接收用户id没传"),
+("markdown","NY_PC","DataGroup",[],"","帅过金城武","https://bkimg.cdn.bcebos.com/pic/cb8065380cd7912309f965f9a5345982b2b78026?x-bce-process=image/resize,m_lfit,w_500,h_500,limit_1","","","WorkNotice","","102013620721191002,061052015035430487","","markdown消息-工作通知-发送用户id没传"),
+("markdown","NY_PC","DataGroup",[],"","帅过金城武","https://bkimg.cdn.bcebos.com/pic/cb8065380cd7912309f965f9a5345982b2b78026?x-bce-process=image/resize,m_lfit,w_500,h_500,limit_1","","","","","102013620721191002,061052015035430487","102013620721191002","markdown消息-工作通知-发送消息类型没传"),
+("markdown","NY_PC","DataGroup",[],"","帅过金城武","https://bkimg.cdn.bcebos.com/pic/cb8065380cd7912309f965f9a5345982b2b78026?x-bce-process=image/resize,m_lfit,w_500,h_500,limit_1","","","12121212","","102013620721191002,061052015035430487","102013620721191002","markdown消息-工作通知-发送消息类型传入错误数据"),
+("","NY_PC","DataGroup",[],"","帅过金城武","https://bkimg.cdn.bcebos.com/pic/cb8065380cd7912309f965f9a5345982b2b78026?x-bce-process=image/resize,m_lfit,w_500,h_500,limit_1","","","WorkNotice","","102013620721191002,061052015035430487","102013620721191002","未传msgType 内容-工作通知"),
+("lalal","NY_PC","DataGroup",[],"","帅过金城武","https://bkimg.cdn.bcebos.com/pic/cb8065380cd7912309f965f9a5345982b2b78026?x-bce-process=image/resize,m_lfit,w_500,h_500,limit_1","","","WorkNotice","","102013620721191002,061052015035430487","102013620721191002","错误的msg内容-工作通知"),
+("markdown","","DataGroup",[],"","帅过金城武","https://bkimg.cdn.bcebos.com/pic/cb8065380cd7912309f965f9a5345982b2b78026?x-bce-process=image/resize,m_lfit,w_500,h_500,limit_1","","","WorkNotice","","102013620721191002,061052015035430487","102013620721191002","业务系统未传-工作通知"),
+("markdown","NY_APP","",[],"","帅过金城武","https://bkimg.cdn.bcebos.com/pic/cb8065380cd7912309f965f9a5345982b2b78026?x-bce-process=image/resize,m_lfit,w_500,h_500,limit_1","","","WorkNotice","","102013620721191002,061052015035430487","102013620721191002","机器人 roup没传-工作通知"),
+("text","NY_APP","",[],"","帅过金城武","https://bkimg.cdn.bcebos.com/pic/cb8065380cd7912309f965f9a5345982b2b78026?x-bce-process=image/resize,m_lfit,w_500,h_500,limit_1","","","WorkNotice","","102013620721191002,061052015035430487","102013620721191002","文本消息类型  内容传递的是图片链接-工作通知"),
 ]</t>
+  </si>
+  <si>
+    <t>/api/v0.1/im/smsMessage/sendSmsMessage</t>
+  </si>
+  <si>
+    <t>发送短信消息接口</t>
+  </si>
+  <si>
+    <t>[("13564089544","店易火","SMS_185246698","帅","正确发送"),
+("17317937115,13564089544","店易火","SMS_185246698","帅","两个手机号"),
+("13564089544","店易火","SMS_185246698","1111","正确发送"),
+("17317937115,13564089544","店易火","SMS_185246698","111","两个手机号"),
+("", "刘程旭真帅", "SMS_185246698", "2222","未传入手机号"),
+("17317937115", "刘程旭真帅", "SMS_185246698", "2222","错误的签名名称"),
+("17317937115", "店易火", "111", "2222","错误的模版参数"),
+("17317937115","店易火","SMS_185246698","1","错误的模版参数"),
+]</t>
+  </si>
+  <si>
+    <t>/api/v1/merchantsStatistics/merchantsContractStatics</t>
+  </si>
+  <si>
+    <t>招商数据概括接口</t>
+  </si>
+  <si>
+    <t>/api/v1/merchantsStatistics/merchantsEfficiency</t>
+  </si>
+  <si>
+    <t>招商人数</t>
   </si>
 </sst>
 </file>
@@ -577,10 +658,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -592,7 +673,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -605,8 +686,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -620,31 +756,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -660,22 +773,28 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -691,52 +810,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -751,187 +832,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -971,6 +1052,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -995,15 +1120,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1015,21 +1131,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1048,173 +1149,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1940,13 +2021,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="36.75" defaultRowHeight="12.4" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="36.75" defaultRowHeight="12.4" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="44.4910714285714" customWidth="1"/>
     <col min="2" max="16384" width="36.75" customWidth="1"/>
@@ -1996,7 +2077,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" ht="409.5" spans="1:3">
+    <row r="5" ht="409.5" spans="1:4">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -2005,6 +2086,67 @@
       </c>
       <c r="C5" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" ht="248" spans="1:3">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="56.9910714285714" defaultRowHeight="12.4" outlineLevelRow="2" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="16384" width="56.9910714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
